--- a/admin/data/excl/147dc.xlsx
+++ b/admin/data/excl/147dc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monstern Technology\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC02CDF-1C41-4D79-9465-5C29553681D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D9DE2-7263-463C-8B16-523D77CF7917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C66AA71B-C5F4-4996-A955-06D06523EF49}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Item number</t>
   </si>
@@ -43,6 +43,57 @@
   </si>
   <si>
     <t xml:space="preserve">Client </t>
+  </si>
+  <si>
+    <t>0003029</t>
+  </si>
+  <si>
+    <t>024918</t>
+  </si>
+  <si>
+    <t>052090</t>
+  </si>
+  <si>
+    <t>052177</t>
+  </si>
+  <si>
+    <t>0052178</t>
+  </si>
+  <si>
+    <t>052154</t>
+  </si>
+  <si>
+    <t>0011148</t>
+  </si>
+  <si>
+    <t>024766</t>
+  </si>
+  <si>
+    <t>0052131</t>
+  </si>
+  <si>
+    <t>006112</t>
+  </si>
+  <si>
+    <t>024364</t>
+  </si>
+  <si>
+    <t>024366</t>
+  </si>
+  <si>
+    <t>024365</t>
+  </si>
+  <si>
+    <t>024444</t>
+  </si>
+  <si>
+    <t>024424</t>
+  </si>
+  <si>
+    <t>0085052</t>
+  </si>
+  <si>
+    <t>024913</t>
   </si>
 </sst>
 </file>
@@ -92,9 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +467,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,8 +494,8 @@
       <c r="A2">
         <v>591037</v>
       </c>
-      <c r="B2">
-        <v>24918</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -451,8 +505,8 @@
       <c r="A3">
         <v>591037</v>
       </c>
-      <c r="B3">
-        <v>24913</v>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -462,8 +516,8 @@
       <c r="A4">
         <v>591037</v>
       </c>
-      <c r="B4">
-        <v>52090</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -473,8 +527,8 @@
       <c r="A5">
         <v>591037</v>
       </c>
-      <c r="B5">
-        <v>52177</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -484,8 +538,8 @@
       <c r="A6">
         <v>591037</v>
       </c>
-      <c r="B6">
-        <v>52178</v>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -495,8 +549,8 @@
       <c r="A7">
         <v>591037</v>
       </c>
-      <c r="B7">
-        <v>52154</v>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -506,8 +560,8 @@
       <c r="A8">
         <v>591037</v>
       </c>
-      <c r="B8">
-        <v>11148</v>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -517,8 +571,8 @@
       <c r="A9">
         <v>591037</v>
       </c>
-      <c r="B9">
-        <v>24766</v>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -528,8 +582,8 @@
       <c r="A10">
         <v>591037</v>
       </c>
-      <c r="B10">
-        <v>52131</v>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -539,8 +593,8 @@
       <c r="A11">
         <v>591037</v>
       </c>
-      <c r="B11">
-        <v>6112</v>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -550,8 +604,8 @@
       <c r="A12">
         <v>591037</v>
       </c>
-      <c r="B12">
-        <v>24364</v>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -561,8 +615,8 @@
       <c r="A13">
         <v>591037</v>
       </c>
-      <c r="B13">
-        <v>24366</v>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -572,8 +626,8 @@
       <c r="A14">
         <v>591037</v>
       </c>
-      <c r="B14">
-        <v>24365</v>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -583,8 +637,8 @@
       <c r="A15">
         <v>591037</v>
       </c>
-      <c r="B15">
-        <v>24444</v>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -594,8 +648,8 @@
       <c r="A16">
         <v>591037</v>
       </c>
-      <c r="B16">
-        <v>24424</v>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -605,8 +659,8 @@
       <c r="A17">
         <v>591037</v>
       </c>
-      <c r="B17">
-        <v>85052</v>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -616,8 +670,8 @@
       <c r="A18">
         <v>591037</v>
       </c>
-      <c r="B18">
-        <v>3029</v>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C18">
         <v>1</v>
